--- a/DOCS/AstaTS.xlsx
+++ b/DOCS/AstaTS.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.benvenuto\Desktop\PERSONALI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="7530" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="Difensori" r:id="rId1" sheetId="2"/>
-    <sheet name="Centrocampisti" r:id="rId2" sheetId="3"/>
-    <sheet name="Attaccanti" r:id="rId3" sheetId="4"/>
-    <sheet name="Lista per Squadra" r:id="rId4" sheetId="1"/>
+    <sheet name="Difensori" sheetId="2" r:id="rId1"/>
+    <sheet name="Centrocampisti" sheetId="3" r:id="rId2"/>
+    <sheet name="Attaccanti" sheetId="4" r:id="rId3"/>
+    <sheet name="Lista per Squadra" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1077,7 +1077,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1135,7 +1134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1154,38 +1153,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="23"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <bgColor indexed="23"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="23"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <bgColor indexed="23"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="23"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="23"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1241,219 +1210,81 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="double"/>
-    </border>
-    <border>
-      <top style="double"/>
-      <bottom style="double"/>
-    </border>
-    <border>
-      <left style="double"/>
-      <top style="double"/>
-      <bottom style="double"/>
-    </border>
-    <border>
-      <left style="double"/>
-      <right style="double"/>
-      <top style="double"/>
-      <bottom style="double"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="right" indent="1" vertical="center"/>
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normale" xfId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1470,10 +1301,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1508,7 +1339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1560,7 +1391,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1671,21 +1502,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1702,7 +1533,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1754,15 +1585,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
@@ -1770,11 +1601,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="11" width="9.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="16" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="13" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="10" width="10.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="15" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" width="9.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1829,9 +1660,7 @@
       <c r="C3" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E3" t="n">
-        <v>31.0</v>
-      </c>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -1840,9 +1669,7 @@
       <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
-        <v>30.0</v>
-      </c>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -1854,15 +1681,13 @@
       <c r="C5" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E5" t="n">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row customFormat="true" r="6" s="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="17" t="s">
         <v>284</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -1870,11 +1695,11 @@
       </c>
       <c r="E6" s="14"/>
     </row>
-    <row customFormat="true" r="7" s="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -1892,26 +1717,24 @@
       <c r="C8" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E8" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row customFormat="true" r="9" s="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>281</v>
       </c>
     </row>
-    <row customFormat="true" r="10" s="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="17" t="s">
         <v>311</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -1931,26 +1754,23 @@
       <c r="C11" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E11" t="n">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row customFormat="true" r="12" s="88" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>314</v>
       </c>
     </row>
-    <row customFormat="true" r="13" s="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="17" t="s">
         <v>315</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -1960,11 +1780,11 @@
         <v>285</v>
       </c>
     </row>
-    <row customFormat="true" r="14" s="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="B14" s="120" t="s">
+      <c r="B14" s="17" t="s">
         <v>308</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -1987,15 +1807,12 @@
       <c r="D15" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="E15" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row customFormat="true" r="16" s="91" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="14"/>
@@ -2010,9 +1827,6 @@
       <c r="C17" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E17" t="n">
-        <v>6.0</v>
-      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -2027,9 +1841,6 @@
       <c r="D18" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="E18" t="n">
-        <v>25.0</v>
-      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -2041,9 +1852,6 @@
       <c r="C19" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E19" t="n">
-        <v>29.0</v>
-      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
@@ -2056,9 +1864,6 @@
       <c r="D20" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="E20" t="n">
-        <v>5.0</v>
-      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
@@ -2070,9 +1875,6 @@
       <c r="C21" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E21" t="n">
-        <v>4.0</v>
-      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -2084,15 +1886,12 @@
       <c r="C22" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E22" t="n">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row customFormat="true" r="23" s="92" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="B23" s="122" t="s">
+      <c r="B23" s="17" t="s">
         <v>304</v>
       </c>
       <c r="C23" s="13" t="s">
@@ -2112,9 +1911,6 @@
       <c r="C24" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E24" t="n">
-        <v>11.0</v>
-      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
@@ -2129,9 +1925,6 @@
       <c r="D25" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="E25" t="n">
-        <v>29.0</v>
-      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
@@ -2143,9 +1936,6 @@
       <c r="C26" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E26" t="n">
-        <v>26.0</v>
-      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
@@ -2157,9 +1947,6 @@
       <c r="C27" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E27" t="n">
-        <v>20.0</v>
-      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
@@ -2169,9 +1956,6 @@
         <v>8</v>
       </c>
       <c r="C28" s="14"/>
-      <c r="E28" t="n">
-        <v>16.0</v>
-      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
@@ -2186,26 +1970,23 @@
       <c r="D29" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="E29" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row customFormat="true" r="30" s="93" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="B30" s="123" t="s">
+      <c r="B30" s="17" t="s">
         <v>125</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>281</v>
       </c>
     </row>
-    <row customFormat="true" r="31" s="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="B31" s="124" t="s">
+      <c r="B31" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="14" t="s">
@@ -2222,15 +2003,12 @@
       <c r="C32" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E32" t="n">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row customFormat="true" r="33" s="95" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="B33" s="125" t="s">
+      <c r="B33" s="17" t="s">
         <v>301</v>
       </c>
       <c r="C33" s="14"/>
@@ -2238,11 +2016,11 @@
         <v>285</v>
       </c>
     </row>
-    <row customFormat="true" r="34" s="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="B34" s="126" t="s">
+      <c r="B34" s="17" t="s">
         <v>302</v>
       </c>
       <c r="C34" s="13" t="s">
@@ -2265,9 +2043,6 @@
       <c r="D35" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="E35" t="n">
-        <v>35.0</v>
-      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
@@ -2279,9 +2054,6 @@
       <c r="C36" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E36" t="n">
-        <v>25.0</v>
-      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
@@ -2293,9 +2065,6 @@
       <c r="C37" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E37" t="n">
-        <v>6.0</v>
-      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
@@ -2307,9 +2076,6 @@
       <c r="C38" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E38" t="n">
-        <v>30.0</v>
-      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -2319,9 +2085,6 @@
         <v>14</v>
       </c>
       <c r="C39" s="14"/>
-      <c r="E39" t="n">
-        <v>18.0</v>
-      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
@@ -2333,15 +2096,12 @@
       <c r="C40" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E40" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row customFormat="true" r="41" s="97" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="B41" s="127" t="s">
+      <c r="B41" s="17" t="s">
         <v>300</v>
       </c>
       <c r="C41" s="14"/>
@@ -2359,9 +2119,6 @@
       <c r="C42" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E42" t="n">
-        <v>35.0</v>
-      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
@@ -2373,15 +2130,12 @@
       <c r="C43" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E43" t="n">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row customFormat="true" r="44" s="98" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="B44" s="128" t="s">
+      <c r="B44" s="17" t="s">
         <v>299</v>
       </c>
       <c r="C44" s="14"/>
@@ -2399,9 +2153,6 @@
       <c r="C45" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E45" t="n">
-        <v>32.0</v>
-      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
@@ -2413,9 +2164,6 @@
       <c r="C46" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E46" t="n">
-        <v>15.0</v>
-      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
@@ -2430,9 +2178,6 @@
       <c r="D47" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="E47" t="n">
-        <v>25.0</v>
-      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
@@ -2442,15 +2187,12 @@
         <v>17</v>
       </c>
       <c r="C48" s="14"/>
-      <c r="E48" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row customFormat="true" r="49" s="99" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="B49" s="129" t="s">
+      <c r="B49" s="17" t="s">
         <v>156</v>
       </c>
       <c r="C49" s="13" t="s">
@@ -2470,9 +2212,6 @@
       <c r="D50" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="E50" t="n">
-        <v>26.0</v>
-      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
@@ -2484,9 +2223,6 @@
       <c r="C51" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E51" t="n">
-        <v>14.0</v>
-      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
@@ -2498,9 +2234,6 @@
       <c r="C52" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E52" t="n">
-        <v>21.0</v>
-      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
@@ -2512,9 +2245,6 @@
       <c r="C53" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E53" t="n">
-        <v>27.0</v>
-      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
@@ -2526,9 +2256,6 @@
       <c r="C54" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E54" t="n">
-        <v>29.0</v>
-      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
@@ -2543,9 +2270,6 @@
       <c r="D55" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="E55" t="n">
-        <v>27.0</v>
-      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -2560,9 +2284,6 @@
       <c r="D56" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="E56" t="n">
-        <v>34.0</v>
-      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
@@ -2574,9 +2295,6 @@
       <c r="C57" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E57" t="n">
-        <v>26.0</v>
-      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
@@ -2588,9 +2306,6 @@
       <c r="C58" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E58" t="n">
-        <v>28.0</v>
-      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
@@ -2605,15 +2320,12 @@
       <c r="D59" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="E59" t="n">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row customFormat="true" r="60" s="100" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="B60" s="130" t="s">
+      <c r="B60" s="17" t="s">
         <v>292</v>
       </c>
       <c r="C60" s="14"/>
@@ -2631,9 +2343,6 @@
       <c r="C61" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E61" t="n">
-        <v>32.0</v>
-      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
@@ -2645,15 +2354,12 @@
       <c r="C62" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E62" t="n">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row customFormat="true" r="63" s="101" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="B63" s="131" t="s">
+      <c r="B63" s="17" t="s">
         <v>293</v>
       </c>
       <c r="C63" s="13" t="s">
@@ -2676,9 +2382,6 @@
       <c r="D64" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="E64" t="n">
-        <v>28.0</v>
-      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
@@ -2690,15 +2393,12 @@
       <c r="C65" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E65" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row customFormat="true" r="66" s="102" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="B66" s="132" t="s">
+      <c r="B66" s="17" t="s">
         <v>295</v>
       </c>
       <c r="C66" s="13" t="s">
@@ -2718,15 +2418,12 @@
       <c r="C67" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E67" t="n">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row customFormat="true" r="68" s="103" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="B68" s="133" t="s">
+      <c r="B68" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C68" s="14"/>
@@ -2744,9 +2441,6 @@
       <c r="D69" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="E69" t="n">
-        <v>26.0</v>
-      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
@@ -2758,9 +2452,6 @@
       <c r="C70" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E70" t="n">
-        <v>34.0</v>
-      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
@@ -2772,9 +2463,6 @@
       <c r="C71" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="E71" t="n">
-        <v>9.0</v>
-      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
@@ -2789,9 +2477,6 @@
       <c r="D72" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="E72" t="n">
-        <v>21.0</v>
-      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
@@ -2803,9 +2488,6 @@
       <c r="C73" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E73" t="n">
-        <v>18.0</v>
-      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
@@ -2817,9 +2499,6 @@
       <c r="C74" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="E74" t="n">
-        <v>38.0</v>
-      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
@@ -2834,9 +2513,6 @@
       <c r="D75" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="E75" t="n">
-        <v>33.0</v>
-      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
@@ -2848,15 +2524,12 @@
       <c r="C76" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="E76" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row customFormat="true" r="77" s="104" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="B77" s="134" t="s">
+      <c r="B77" s="17" t="s">
         <v>223</v>
       </c>
       <c r="C77" s="13" t="s">
@@ -2871,9 +2544,6 @@
         <v>32</v>
       </c>
       <c r="C78" s="14"/>
-      <c r="E78" t="n">
-        <v>32.0</v>
-      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
@@ -2883,15 +2553,12 @@
         <v>33</v>
       </c>
       <c r="C79" s="14"/>
-      <c r="E79" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row customFormat="true" r="80" s="105" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="B80" s="135" t="s">
+      <c r="B80" s="17" t="s">
         <v>224</v>
       </c>
       <c r="C80" s="13" t="s">
@@ -2908,9 +2575,6 @@
       <c r="C81" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E81" t="n">
-        <v>36.0</v>
-      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
@@ -2923,9 +2587,6 @@
       <c r="D82" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="E82" t="n">
-        <v>28.0</v>
-      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
@@ -2937,15 +2598,12 @@
       <c r="C83" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E83" t="n">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row customFormat="true" r="84" s="106" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="B84" s="136" t="s">
+      <c r="B84" s="17" t="s">
         <v>239</v>
       </c>
       <c r="C84" s="13" t="s">
@@ -2962,15 +2620,12 @@
       <c r="C85" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E85" t="n">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row customFormat="true" r="86" s="107" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="B86" s="137" t="s">
+      <c r="B86" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C86" s="13" t="s">
@@ -2990,9 +2645,6 @@
       <c r="C87" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="E87" t="n">
-        <v>6.0</v>
-      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
@@ -3004,15 +2656,12 @@
       <c r="C88" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="E88" t="n">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row customFormat="true" r="89" s="108" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="B89" s="138" t="s">
+      <c r="B89" s="17" t="s">
         <v>287</v>
       </c>
       <c r="C89" s="13" t="s">
@@ -3022,33 +2671,33 @@
         <v>285</v>
       </c>
     </row>
-    <row customFormat="true" r="90" s="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="B90" s="139" t="s">
+      <c r="B90" s="17" t="s">
         <v>250</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>281</v>
       </c>
     </row>
-    <row customFormat="true" r="91" s="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="B91" s="140" t="s">
+      <c r="B91" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>314</v>
       </c>
     </row>
-    <row customFormat="true" r="92" s="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="B92" s="141" t="s">
+      <c r="B92" s="17" t="s">
         <v>286</v>
       </c>
       <c r="C92" s="13" t="s">
@@ -3058,11 +2707,11 @@
         <v>285</v>
       </c>
     </row>
-    <row customFormat="true" r="93" s="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="B93" s="142" t="s">
+      <c r="B93" s="17" t="s">
         <v>312</v>
       </c>
       <c r="C93" s="13" t="s">
@@ -3085,9 +2734,6 @@
       <c r="D94" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="E94" t="n">
-        <v>29.0</v>
-      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
@@ -3099,15 +2745,12 @@
       <c r="C95" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="E95" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row customFormat="true" r="96" s="113" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="B96" s="143" t="s">
+      <c r="B96" s="16" t="s">
         <v>118</v>
       </c>
       <c r="C96" s="13" t="s">
@@ -3124,9 +2767,6 @@
       <c r="C97" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="E97" t="n">
-        <v>20.0</v>
-      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
@@ -3138,9 +2778,6 @@
       <c r="C98" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="E98" t="n">
-        <v>35.0</v>
-      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
@@ -3151,82 +2788,79 @@
       </c>
       <c r="C99" s="13" t="s">
         <v>281</v>
-      </c>
-      <c r="E99" t="n">
-        <v>5.0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:J1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD128"/>
+  <dimension ref="A1:AC128"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="12.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="3" width="4.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="8.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="6" width="4.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="8" width="15.42578125" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" style="3" width="4.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="8.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="6" width="4.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="8" width="14.7109375" collapsed="true"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" style="3" width="4.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="3" width="8.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="6" width="4.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="6" width="15.85546875" collapsed="true"/>
-    <col min="17" max="18" bestFit="true" customWidth="true" style="6" width="4.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="6" width="8.7109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="6" width="4.85546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="6" width="17.28515625" collapsed="true"/>
-    <col min="22" max="23" bestFit="true" customWidth="true" style="6" width="4.5703125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="6" width="8.7109375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="6" width="4.85546875" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="6" width="14.5703125" collapsed="true"/>
-    <col min="27" max="28" bestFit="true" customWidth="true" style="6" width="4.5703125" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="6" width="8.7109375" collapsed="true"/>
-    <col min="30" max="16384" style="6" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="6" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="6" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="4.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" style="6" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="4.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>258</v>
       </c>
@@ -6705,7 +6339,7 @@
       <c r="I128" s="6"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.15748031496062992" footer="0" header="0" left="0.15748031496062992" right="0.15748031496062992" top="0.15748031496062992"/>
-  <pageSetup horizontalDpi="1200" orientation="landscape" paperSize="9" r:id="rId1" scale="62" verticalDpi="1200"/>
+  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DOCS/AstaTS.xlsx
+++ b/DOCS/AstaTS.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.benvenuto\Desktop\PERSONALI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKSPACE\___CONF\FANTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Difensori" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Attaccanti" sheetId="4" r:id="rId3"/>
     <sheet name="Lista per Squadra" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="394">
   <si>
     <t>Caldara</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Ferrari</t>
   </si>
   <si>
-    <t>Schick</t>
-  </si>
-  <si>
     <t>Missiroli</t>
   </si>
   <si>
@@ -1071,12 +1068,153 @@
   </si>
   <si>
     <t>GOALS</t>
+  </si>
+  <si>
+    <t>Ilicic</t>
+  </si>
+  <si>
+    <t>Chiellini</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D'Alessandro</t>
+  </si>
+  <si>
+    <t>Ciciretti</t>
+  </si>
+  <si>
+    <t>Lazovic</t>
+  </si>
+  <si>
+    <t>Laxalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Centurion</t>
+  </si>
+  <si>
+    <t>Krejci</t>
+  </si>
+  <si>
+    <t>Verdi</t>
+  </si>
+  <si>
+    <t>Di Francesco</t>
+  </si>
+  <si>
+    <t>Joao Pedro</t>
+  </si>
+  <si>
+    <t>Birsa</t>
+  </si>
+  <si>
+    <t>Rohden</t>
+  </si>
+  <si>
+    <t>Kragl</t>
+  </si>
+  <si>
+    <t>Chiesa</t>
+  </si>
+  <si>
+    <t>Saponara</t>
+  </si>
+  <si>
+    <t>Eysseric</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Candreva</t>
+  </si>
+  <si>
+    <t>Brozovic</t>
+  </si>
+  <si>
+    <t>Perisic</t>
+  </si>
+  <si>
+    <t>Douglas Costa</t>
+  </si>
+  <si>
+    <t>Bernardeschi</t>
+  </si>
+  <si>
+    <t>Lulic</t>
+  </si>
+  <si>
+    <t>Felipe Anderson</t>
+  </si>
+  <si>
+    <t>Bonaventura</t>
+  </si>
+  <si>
+    <t>Calhanoglu</t>
+  </si>
+  <si>
+    <t>Perotti</t>
+  </si>
+  <si>
+    <t>Ramirez</t>
+  </si>
+  <si>
+    <t>Lazzari</t>
+  </si>
+  <si>
+    <t>Berenguer</t>
+  </si>
+  <si>
+    <t>De Paul</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>Donsah</t>
+  </si>
+  <si>
+    <t>Montolivo</t>
+  </si>
+  <si>
+    <t>Linetty</t>
+  </si>
+  <si>
+    <t>Zappacosta</t>
+  </si>
+  <si>
+    <t>Barreca</t>
+  </si>
+  <si>
+    <t>De Silvestri</t>
+  </si>
+  <si>
+    <t>Zuculini</t>
+  </si>
+  <si>
+    <t>Kurtic</t>
+  </si>
+  <si>
+    <t>Pavoletti</t>
+  </si>
+  <si>
+    <t>Shick</t>
+  </si>
+  <si>
+    <t>Ceravolo</t>
+  </si>
+  <si>
+    <t>Armenteros</t>
+  </si>
+  <si>
+    <t>Fares</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1154,7 +1292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1210,11 +1348,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -1279,9 +1441,24 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1593,16 +1770,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="15" style="16" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="13" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="10" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="15" customWidth="1"/>
@@ -1610,7 +1787,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E1" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
@@ -1620,51 +1797,51 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>343</v>
-      </c>
       <c r="J2" s="21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>0</v>
@@ -1673,144 +1850,144 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>4</v>
@@ -1819,138 +1996,138 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>8</v>
@@ -1959,127 +2136,127 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>14</v>
@@ -2088,100 +2265,100 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>17</v>
@@ -2190,238 +2367,238 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>156</v>
+        <v>348</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B62" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B68" s="17" t="s">
         <v>29</v>
@@ -2430,364 +2607,441 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C78" s="14"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C79" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C82" s="14"/>
       <c r="D82" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B86" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B91" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B95" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B97" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B99" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="C97" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>319</v>
-      </c>
       <c r="C99" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2801,24 +3055,2019 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="13"/>
+    <col min="4" max="4" width="9.140625" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="E1" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>322</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>327</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>327</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>323</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>323</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>323</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>323</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>323</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>323</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>323</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>324</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>324</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>324</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>325</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>325</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>325</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>325</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>338</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>338</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>338</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>338</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="26" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>338</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>338</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>338</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>326</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>326</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>326</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>326</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>326</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>326</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>326</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>326</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>328</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>328</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>328</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>328</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>328</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>328</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>329</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>329</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>329</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>329</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>329</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>329</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>330</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>330</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>330</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>330</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>330</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>330</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>379</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>379</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>379</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>379</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>379</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>379</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>379</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>331</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>331</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>331</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>331</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>332</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>332</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>332</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>332</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="4"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>332</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>333</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>333</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>333</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>333</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>333</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>334</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>334</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>334</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>334</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>335</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D94" s="26" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>335</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>335</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>335</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>335</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>335</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>335</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>335</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>380</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>380</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103" s="4"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>380</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>380</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>380</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>336</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>336</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>336</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>336</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>337</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C111" s="4"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>337</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>337</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>337</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>337</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>325</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>325</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>338</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>338</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>326</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>326</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>327</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>327</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>328</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>329</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>329</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>329</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>330</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>379</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>379</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>379</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>379</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>331</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>331</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>331</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>332</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>332</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>332</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="C40" s="27"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>333</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>333</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>334</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>334</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>334</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>335</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>335</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>335</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>380</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>380</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>380</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>336</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>336</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>337</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>337</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>337</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>337</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2830,7 +5079,9 @@
   </sheetPr>
   <dimension ref="A1:AC128"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71:G73"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2862,128 +5113,128 @@
   <sheetData>
     <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="S1" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T1" s="6"/>
       <c r="U1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="Y1" s="6"/>
       <c r="Z1" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AA1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="AC1" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="7"/>
       <c r="K2" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="P2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="U2" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Z2" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
@@ -2993,15 +5244,15 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -3010,23 +5261,23 @@
         <v>4</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="P3" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="U3" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -3034,93 +5285,93 @@
         <v>9</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="F4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="7"/>
       <c r="K4" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="P4" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="U4" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Z4" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="F5" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="7"/>
       <c r="K5" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="P5" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -3128,25 +5379,25 @@
         <v>8</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Z5" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3156,52 +5407,52 @@
       <c r="I6" s="2"/>
       <c r="J6" s="7"/>
       <c r="K6" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="P6" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="U6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Z6" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="F7" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -3225,10 +5476,10 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3236,40 +5487,40 @@
         <v>3</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="7"/>
       <c r="K8" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="P8" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="U8" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Z8" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
@@ -3280,10 +5531,10 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="F9" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -3292,31 +5543,31 @@
         <v>5</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="P9" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="U9" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Z9" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
@@ -3326,40 +5577,42 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="F10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="7"/>
       <c r="K10" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="P10" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="U10" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -3367,58 +5620,60 @@
         <v>10</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="F11" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="7"/>
       <c r="K11" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="P11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="U11" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Z11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
@@ -3428,9 +5683,11 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="F12" s="5"/>
       <c r="G12" s="2"/>
@@ -3438,10 +5695,10 @@
       <c r="I12" s="2"/>
       <c r="J12" s="7"/>
       <c r="K12" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3454,37 +5711,39 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Z12" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="F13" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="7"/>
       <c r="K13" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3492,15 +5751,15 @@
         <v>7</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="U13" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3511,18 +5770,20 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="F14" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -3532,26 +5793,26 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="P14" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="U14" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Z14" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
@@ -3562,18 +5823,18 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="K15" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="P15" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -3585,17 +5846,17 @@
         <v>123</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3603,7 +5864,7 @@
         <v>6</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3615,137 +5876,139 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-      <c r="Z16" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z18" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="G19" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="I19" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="N19" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q19" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="L19" s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="N19" s="2" t="s">
+      <c r="S19" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="V19" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="P19" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q19" s="2" t="s">
+      <c r="W19" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="X19" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>268</v>
+        <v>277</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>278</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="F20" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="K20" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="P20" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="U20" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -3753,7 +6016,7 @@
         <v>185</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
@@ -3763,23 +6026,23 @@
         <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="F21" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="K21" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3787,20 +6050,20 @@
         <v>17</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="U21" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Z21" s="5" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="AA21" s="2" t="s">
         <v>66</v>
@@ -3810,10 +6073,10 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3821,81 +6084,81 @@
         <v>14</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="K22" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="P22" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="U22" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Z22" s="5" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="F23" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="K23" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="P23" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="U23" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -3903,17 +6166,17 @@
         <v>187</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3922,18 +6185,18 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="K24" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="P24" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -3941,37 +6204,33 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Z24" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA24" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="F25" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="K25" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3980,15 +6239,19 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="U25" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="2"/>
+      <c r="Z25" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
     </row>
@@ -3998,10 +6261,10 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="F26" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -4013,7 +6276,7 @@
         <v>18</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
@@ -4021,12 +6284,12 @@
         <v>20</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Z26" s="5" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="AA26" s="2" t="s">
         <v>66</v>
@@ -4036,18 +6299,18 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="F27" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -4055,31 +6318,31 @@
         <v>16</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="P27" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="U27" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Z27" s="5" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
@@ -4089,73 +6352,73 @@
         <v>12</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="F28" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="K28" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="P28" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="U28" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Z28" s="5" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="F29" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="K29" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4163,15 +6426,15 @@
         <v>19</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="U29" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -4179,17 +6442,17 @@
         <v>190</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4197,31 +6460,31 @@
         <v>15</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="K30" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="P30" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="U30" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
@@ -4229,17 +6492,17 @@
         <v>191</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4248,18 +6511,18 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="K31" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="P31" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
@@ -4267,37 +6530,33 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
-      <c r="Z31" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA31" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="F32" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="K32" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4306,32 +6565,36 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="U32" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="2"/>
+      <c r="Z32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="F33" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -4340,10 +6603,10 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="P33" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -4352,44 +6615,44 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Z33" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA33" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="F34" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="K34" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="P34" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -4398,10 +6661,10 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Z34" s="5" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
@@ -4412,18 +6675,18 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="F35" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="P35" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -4435,17 +6698,17 @@
         <v>193</v>
       </c>
       <c r="AA35" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -4457,21 +6720,13 @@
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
-      <c r="Z36" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -4497,119 +6752,127 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
+      <c r="Z38" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA38" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB38" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="G39" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="I39" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G39" s="2" t="s">
+      <c r="M39" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="I39" s="2" t="s">
+      <c r="N39" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q39" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="L39" s="2" t="s">
+      <c r="R39" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="M39" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="N39" s="2" t="s">
+      <c r="S39" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="V39" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="P39" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q39" s="2" t="s">
+      <c r="W39" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="R39" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="V39" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="W39" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="X39" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z39" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
+      </c>
+      <c r="Z39" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="AA39" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB39" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="AC39" s="2" t="s">
-        <v>278</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="F40" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="K40" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="P40" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="U40" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
@@ -4617,7 +6880,7 @@
         <v>229</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
@@ -4627,39 +6890,39 @@
         <v>25</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="F41" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="K41" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="P41" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="U41" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
@@ -4667,17 +6930,17 @@
         <v>230</v>
       </c>
       <c r="AA41" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -4685,7 +6948,7 @@
         <v>27</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -4693,28 +6956,28 @@
         <v>29</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="P42" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="U42" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
       <c r="Z42" s="5" t="s">
-        <v>231</v>
+        <v>61</v>
       </c>
       <c r="AA42" s="2" t="s">
         <v>66</v>
@@ -4724,50 +6987,50 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="F43" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="K43" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="P43" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="U43" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
       <c r="Z43" s="5" t="s">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c r="AA43" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
@@ -4778,18 +7041,18 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="F44" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="K44" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -4798,52 +7061,48 @@
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="U44" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
-      <c r="Z44" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA44" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="F45" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="K45" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="P45" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
@@ -4851,8 +7110,12 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="2"/>
+      <c r="Z45" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA45" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
     </row>
@@ -4861,7 +7124,7 @@
         <v>26</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -4874,18 +7137,18 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="P46" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="U46" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
@@ -4893,99 +7156,99 @@
         <v>38</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="F47" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="K47" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="P47" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="U47" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
       <c r="Z47" s="5" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="AA47" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="F48" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="K48" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="P48" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="U48" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
@@ -4993,7 +7256,7 @@
         <v>233</v>
       </c>
       <c r="AA48" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
@@ -5004,18 +7267,18 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="F49" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="K49" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -5024,10 +7287,10 @@
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="U49" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
@@ -5035,17 +7298,17 @@
         <v>234</v>
       </c>
       <c r="AA49" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -5053,57 +7316,53 @@
         <v>28</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="K50" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="P50" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="U50" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
-      <c r="Z50" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="AA50" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="F51" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -5112,32 +7371,36 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="P51" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="U51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
-      <c r="Z51" s="5"/>
-      <c r="AA51" s="2"/>
+      <c r="Z51" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA51" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -5146,26 +7409,26 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="K52" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="P52" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="U52" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
@@ -5173,25 +7436,25 @@
         <v>236</v>
       </c>
       <c r="AA52" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="F53" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="K53" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -5200,10 +7463,10 @@
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="U53" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
@@ -5211,28 +7474,20 @@
         <v>237</v>
       </c>
       <c r="AA53" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="F54" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
-      <c r="K54" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
       <c r="P54" s="8"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
@@ -5241,25 +7496,25 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
-      <c r="Z54" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA54" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB54" s="2"/>
-      <c r="AC54" s="2"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
       <c r="P55" s="8"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="U55" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
@@ -5286,10 +7541,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="U56" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
@@ -5316,17 +7571,13 @@
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
       <c r="U57" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
-      <c r="Z57" s="8"/>
-      <c r="AA57" s="3"/>
-      <c r="AB57" s="3"/>
-      <c r="AC57" s="3"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
@@ -5344,28 +7595,28 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="G59" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="I59" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
@@ -5374,18 +7625,18 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="F60" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -5396,18 +7647,18 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="F61" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -5418,10 +7669,10 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -5429,7 +7680,7 @@
         <v>29</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -5440,18 +7691,18 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="F63" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -5462,18 +7713,18 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="F64" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -5484,10 +7735,10 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -5502,18 +7753,18 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="F66" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -5528,10 +7779,10 @@
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="F67" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -5542,18 +7793,18 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="F68" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -5564,18 +7815,18 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="F69" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -5586,10 +7837,10 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -5604,18 +7855,18 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="F71" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -5630,10 +7881,10 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="F72" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -5644,18 +7895,18 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="F73" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -5666,10 +7917,10 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -5677,20 +7928,20 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
@@ -5897,10 +8148,12 @@
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
@@ -6163,10 +8416,6 @@
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
-      <c r="M110" s="6"/>
-      <c r="N110" s="6"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
